--- a/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>27,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>55,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 20,38</t>
+          <t>0,0; 57,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 13,63</t>
+          <t>0,0; 71,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 20,2</t>
+          <t>22,81; 82,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 402,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 79,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 190,5</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-58,49%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-6,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-33,01%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,26; -0,4</t>
+          <t>-5,43; 20,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 9,83</t>
+          <t>-16,04; 13,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 9,08</t>
+          <t>-9,83; 20,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 12,1</t>
+          <t>-36,67; 402,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 118,64</t>
+          <t>-51,59; 79,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,52; 68,98</t>
+          <t>-61,05; 190,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,22</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,46</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-62,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,92</t>
+          <t>-13,74; 5,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,93</t>
+          <t>-25,08; 0,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 82,8</t>
+          <t>-23,22; 14,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 180,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,17; 30,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,17; 157,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-39,37%</t>
+          <t>-58,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-62,96%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>-33,01%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 5,87</t>
+          <t>-25,26; -0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 0,77</t>
+          <t>-20,7; 9,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 14,93</t>
+          <t>-23,5; 9,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 180,98</t>
+          <t>-87,56; 12,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-92,17; 30,09</t>
+          <t>-77,32; 118,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,17; 157,26</t>
+          <t>-71,52; 68,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,92</t>
+          <t>0,0; 58,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,93</t>
+          <t>0,0; 71,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 12,9</t>
+          <t>-19,16; 13,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 22,03</t>
+          <t>-22,02; 22,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 12,38</t>
+          <t>-36,22; 10,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 133,92</t>
+          <t>-74,08; 144,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,04; 234,96</t>
+          <t>-69,55; 273,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,77; 147,21</t>
+          <t>-86,8; 121,03</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 20,38</t>
+          <t>-5,45; 19,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 13,63</t>
+          <t>-15,64; 13,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 20,2</t>
+          <t>-9,52; 19,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 402,26</t>
+          <t>-34,78; 328,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 79,2</t>
+          <t>-49,02; 87,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 190,5</t>
+          <t>-58,44; 182,68</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 5,87</t>
+          <t>-13,83; 5,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 0,77</t>
+          <t>-25,55; 2,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 14,93</t>
+          <t>-20,93; 15,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 180,98</t>
+          <t>-100,0; 174,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,17; 30,09</t>
+          <t>-100,0; 61,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,17; 157,26</t>
+          <t>-65,04; 187,09</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,26; -0,4</t>
+          <t>-24,02; -0,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 9,83</t>
+          <t>-20,39; 8,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 9,08</t>
+          <t>-24,89; 7,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 12,1</t>
+          <t>-86,9; 3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 118,64</t>
+          <t>-75,31; 119,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,52; 68,98</t>
+          <t>-74,85; 54,95</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 3,51</t>
+          <t>-9,71; 3,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 4,18</t>
+          <t>-11,41; 4,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 8,45</t>
+          <t>-8,34; 8,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 31,75</t>
+          <t>-51,76; 25,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 26,03</t>
+          <t>-48,44; 30,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 59,17</t>
+          <t>-36,08; 61,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,46</t>
+          <t>0,0; 59,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,88</t>
+          <t>0,0; 74,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 82,8</t>
+          <t>26,78; 85,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 13,69</t>
+          <t>-20,45; 13,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 22,93</t>
+          <t>-23,83; 21,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 10,78</t>
+          <t>-35,61; 11,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,08; 144,93</t>
+          <t>-77,08; 148,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 273,43</t>
+          <t>-70,7; 216,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,8; 121,03</t>
+          <t>-88,97; 106,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 19,58</t>
+          <t>-6,01; 20,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 13,58</t>
+          <t>-16,67; 14,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 19,54</t>
+          <t>-8,97; 21,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 328,32</t>
+          <t>-40,13; 365,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 87,53</t>
+          <t>-51,75; 86,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 182,68</t>
+          <t>-55,6; 190,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 5,95</t>
+          <t>-14,52; 6,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 2,33</t>
+          <t>-24,12; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 15,39</t>
+          <t>-17,82; 15,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 174,54</t>
+          <t>-100,0; 242,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 61,15</t>
+          <t>-92,4; 72,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 187,09</t>
+          <t>-61,6; 181,84</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,02; -0,54</t>
+          <t>-25,53; 0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 8,92</t>
+          <t>-20,89; 9,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 7,33</t>
+          <t>-24,64; 8,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-86,9; 3,32</t>
+          <t>-90,36; 10,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,31; 119,14</t>
+          <t>-81,48; 115,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,85; 54,95</t>
+          <t>-71,25; 62,89</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 3,01</t>
+          <t>-10,52; 3,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 4,78</t>
+          <t>-10,97; 4,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 8,87</t>
+          <t>-8,42; 9,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 25,4</t>
+          <t>-53,25; 27,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 30,44</t>
+          <t>-45,53; 31,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 61,92</t>
+          <t>-35,9; 63,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,22</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,46</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>13,99%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,27</t>
+          <t>-18,59; 13,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,89</t>
+          <t>-15,02; 27,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,78; 85,03</t>
+          <t>-18,55; 24,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,79; 177,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,61; 339,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,61; 253,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,93</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>-6,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,19%</t>
+          <t>56,72%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 13,54</t>
+          <t>-5,43; 20,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 21,07</t>
+          <t>-16,04; 13,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 11,29</t>
+          <t>-7,58; 39,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,08; 148,08</t>
+          <t>-36,67; 402,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,7; 216,87</t>
+          <t>-51,59; 79,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,97; 106,78</t>
+          <t>-52,75; 356,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>-62,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>-15,95%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 20,12</t>
+          <t>-13,74; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 14,6</t>
+          <t>-25,08; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 21,07</t>
+          <t>-29,29; 10,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 365,59</t>
+          <t>-100,0; 180,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,75; 86,32</t>
+          <t>-92,17; 30,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 190,61</t>
+          <t>-83,8; 114,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,58</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,37%</t>
+          <t>-58,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-62,96%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>-33,57%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 6,25</t>
+          <t>-25,26; -0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 2,55</t>
+          <t>-20,7; 9,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 15,97</t>
+          <t>-23,64; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 242,53</t>
+          <t>-87,56; 12,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,4; 72,94</t>
+          <t>-77,32; 118,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 181,84</t>
+          <t>-72,24; 64,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-58,49%</t>
+          <t>-20,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-16,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-33,01%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 0,35</t>
+          <t>-9,31; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 9,87</t>
+          <t>-12,21; 4,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 8,24</t>
+          <t>-11,67; 9,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-90,36; 10,25</t>
+          <t>-50,93; 31,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,48; 115,93</t>
+          <t>-49,56; 26,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,25; 62,89</t>
+          <t>-49,2; 64,24</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,11</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-20,45%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-16,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,52; 3,33</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,97; 4,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 9,01</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-53,25; 27,3</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-45,53; 31,56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-35,9; 63,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
